--- a/JavaCore/target/classes/file/demoExcel.xlsx
+++ b/JavaCore/target/classes/file/demoExcel.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="10">
   <si>
     <t>Nguyen Van A</t>
   </si>
